--- a/medicine/Sexualité et sexologie/Prenez_la_queue_comme_tout_le_monde/Prenez_la_queue_comme_tout_le_monde.xlsx
+++ b/medicine/Sexualité et sexologie/Prenez_la_queue_comme_tout_le_monde/Prenez_la_queue_comme_tout_le_monde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prenez la queue comme tout le monde est une comédie érotique franco-italienne de Jean-François Davy sortie en 1973.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marié depuis des années, Gilles ne peut s’empêcher de tromper sa femme. Il partage ainsi la vie de plusieurs femmes et ses amis sont jaloux de ne pouvoir en faire autant. Lassés de ses histoires érotiques, ils organisent un rendez-vous en présence de toutes ses maîtresses...
 </t>
@@ -542,10 +556,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Titre original français : Prenez la queue comme tout le monde[1]
+Titre original français : Prenez la queue comme tout le monde
 Titre italien : Club del piacere
 Réalisation : Jean-François Davy
 Scénario : Jean-François Davy • Daniel Geldreich
@@ -564,7 +580,7 @@
 Directeur de production : Rudy-Jean Le Roy
 Production : Jenny Gérard • Michel Gast • Anselmo Parrinello • Paolo Prestano
 Sociétés de production : S.N.D. (Paris) • Naxos Films (Rome)
-Pays d'origine :  France •  Italie[1]
+Pays d'origine :  France •  Italie
 Tournage : mars-avril 1973
 Langue : français
 Genre : comédie érotique
@@ -603,7 +619,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Philippe Gasté : Gilles Pilar
